--- a/src/main/resources/static/template/已考证人员列表模板.xlsx
+++ b/src/main/resources/static/template/已考证人员列表模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weiqin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\yiliao_njk\certificate\src\main\resources\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>手机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>文件名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -96,10 +92,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>身份证号（有的话填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>龚江伟</t>
   </si>
   <si>
@@ -119,6 +111,14 @@
   <si>
     <t>2019.11.25</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机(文本格式)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号（有的话填，文本格式）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -572,12 +572,12 @@
     <col min="6" max="6" width="34.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="65.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="17.25">
@@ -609,28 +609,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/template/已考证人员列表模板.xlsx
+++ b/src/main/resources/static/template/已考证人员列表模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\yiliao_njk\certificate\src\main\resources\static\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weiqin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,16 +48,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>发证时间</t>
-    <rPh sb="0" eb="1">
-      <t>fa zheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi jian</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>发证单位</t>
     <rPh sb="0" eb="1">
       <t>fa zheng dan wei</t>
@@ -109,16 +99,25 @@
     <t>北京市孤独症儿童康复协会、北大医疗脑健康行为发展教研院</t>
   </si>
   <si>
-    <t>2019.11.25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>手机(文本格式)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>身份证号（有的话填，文本格式）</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证时间(文本格式)</t>
+    <rPh sb="0" eb="1">
+      <t>fa zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.25</t>
   </si>
 </sst>
 </file>
@@ -237,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,6 +258,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -570,14 +575,14 @@
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="65.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -586,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -594,14 +599,14 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="17.25">
@@ -609,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
